--- a/biology/Botanique/Tillandsia_aurea/Tillandsia_aurea.xlsx
+++ b/biology/Botanique/Tillandsia_aurea/Tillandsia_aurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia aurea est une espèce de plante de la famille des Bromeliaceae, endémique du Pérou. L'épithète aurea signifie « dorée » et se rapporte au coloris des pétales.
 </t>
@@ -511,13 +523,15 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia aurea Mez, in Repert. Spec. Nov. Regni Veg. 3: 44 (1906)
-Diagnose originale[1]
+Diagnose originale
 « Foliis optime rosulatis, lepidibus magnis nec piliformibus pruinosis; scapo elongato: inflorescentia pauci-(usque ad 6-) flora, simplicissima, laxe disticha; bracteis quam sepala optime brevioribus; floribus suberectoerectis; sepalis posticis binis paullo altius inter sese quam cum antico connatis; petalis lamina aurea, maxima, late elliptica, optime explanata; staminibus profunde inclusis stylum superantibus. »
 Type
-leg. Weberbauer, n° 3297, 1903-07-05 ; « Peruvia, prov. Huari, dept. Ancachs, in valle Puccha. super Masin, alt. 2600-2700 m »[1] ; Holotypus B (Herb. Berol.) [ Planche en ligne ].</t>
+leg. Weberbauer, n° 3297, 1903-07-05 ; « Peruvia, prov. Huari, dept. Ancachs, in valle Puccha. super Masin, alt. 2600-2700 m » ; Holotypus B (Herb. Berol.) [ Planche en ligne ].</t>
         </is>
       </c>
     </row>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce est endémique de la région d'Ancash au Pérou[1],[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de la région d'Ancash au Pérou,.
 </t>
         </is>
       </c>
@@ -577,9 +596,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre dans les buissons en zone montagneuse[1]. entre 2 600 et 2 700 mètres d'altitude[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans les buissons en zone montagneuse. entre 2 600 et 2 700 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -608,9 +629,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia aurea est une plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux et épiphyte[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia aurea est une plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux et épiphyte.
 </t>
         </is>
       </c>
@@ -641,10 +664,49 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia aurea var. aurea
-(autonyme)
-Tillandsia aurea var. minor H.Hrom. &amp; Rauh
-Tillandsia aurea var. minor H.Hrom. &amp; Rauh, in Abh. Akad. Wiss. Lit. Mainz, Math.-Naturwiss. Klasse, Trop. Subtrop. Pflanzenwelt 52: 66 (1985), au Pérou[3].
+          <t>Tillandsia aurea var. aurea</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tillandsia_aurea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_aurea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tillandsia aurea var. minor H.Hrom. &amp; Rauh</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia aurea var. minor H.Hrom. &amp; Rauh, in Abh. Akad. Wiss. Lit. Mainz, Math.-Naturwiss. Klasse, Trop. Subtrop. Pflanzenwelt 52: 66 (1985), au Pérou.
 </t>
         </is>
       </c>
